--- a/Resources/data/Project 2 - Mapping of NBA Roster to College File.xlsx
+++ b/Resources/data/Project 2 - Mapping of NBA Roster to College File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daleromero/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ae1caf55cd77bee/Desktop/School/UCI Bootcamp/Projects/NCAA_Athletic_Dept_Budgets/Resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062D6A1A-E7AA-DE41-A971-B34DAE79ADD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{062D6A1A-E7AA-DE41-A971-B34DAE79ADD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D544D205-6A9A-4759-9662-30E7614825B0}"/>
   <bookViews>
-    <workbookView xWindow="27720" yWindow="3740" windowWidth="16620" windowHeight="22760" xr2:uid="{9C0F4561-8C5A-E943-AC87-DB2CFB3B29CD}"/>
+    <workbookView xWindow="13550" yWindow="-1330" windowWidth="19420" windowHeight="10420" xr2:uid="{9C0F4561-8C5A-E943-AC87-DB2CFB3B29CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="303">
   <si>
     <t>The University of Alabama</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Oregon State University</t>
   </si>
 </sst>
 </file>
@@ -1329,19 +1332,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19614B4-4B87-E842-B1CA-294161EFE7A8}">
   <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108:C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>230</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>145</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>218</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>238</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>180</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>169</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>206</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>211</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>243</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>216</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>191</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>184</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>213</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>177</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>135</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>220</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>231</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>142</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>234</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>92</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>232</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>162</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>195</v>
       </c>
@@ -2455,10 +2458,10 @@
         <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>237</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>128</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>214</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>84</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>137</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>227</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>160</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>153</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>183</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>185</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>188</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>221</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>235</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>116</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>225</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>172</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>175</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>246</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>98</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>240</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>111</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>174</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>189</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>223</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>199</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>226</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>124</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>148</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>138</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>103</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>245</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>176</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>131</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>219</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>210</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>228</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>236</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>143</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>229</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>215</v>
       </c>
